--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798564.389607381</v>
+        <v>2796312.309896173</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>298.7307299422358</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329251</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.3272786184945</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>200.4842381120842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666726</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>135.6124421820992</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.7990673941657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493346</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065913</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294459</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877907</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.953133796418</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486851</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796418</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796418</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450101</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="X4" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116516</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176105</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1473305693542</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>958.1473305693542</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>471.1308394896936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>578.5476590249488</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,16 +7081,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219418</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735511</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.047851940773399e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687969</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.9702550038</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725869</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.775472588</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.313106113</v>
+        <v>223889.5751806775</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880326</v>
       </c>
       <c r="G6" t="n">
-        <v>549336.7749134683</v>
+        <v>549302.0369880324</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.7749134683</v>
+        <v>549302.0369880326</v>
       </c>
       <c r="I6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161905</v>
+        <v>331770.8345907555</v>
       </c>
       <c r="K6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880327</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.746977956</v>
+        <v>464247.0090525204</v>
       </c>
       <c r="N6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880324</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.7749134682</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.774913468</v>
+        <v>549302.0369880325</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>66.54216182877173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393366</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576747</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>86.03876022450683</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068133</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>271.2636035596123</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.78558595792907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923768</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468622</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908834</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>167.4277998651737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867654</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
